--- a/BackTest/2019-11-21 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-21 BackTest CTXC.xlsx
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
@@ -29291,14 +29291,20 @@
         <v>200</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I826" t="n">
         <v>0</v>
       </c>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>200</v>
+      </c>
       <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -29326,14 +29332,20 @@
         <v>199</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I827" t="n">
         <v>0</v>
       </c>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>200</v>
+      </c>
       <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -29361,14 +29373,20 @@
         <v>196.5</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I828" t="n">
         <v>0</v>
       </c>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>198</v>
+      </c>
       <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -29396,14 +29414,20 @@
         <v>195.5</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I829" t="n">
         <v>0</v>
       </c>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>195</v>
+      </c>
       <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -29442,7 +29466,7 @@
       <c r="K830" t="inlineStr"/>
       <c r="L830" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M830" t="n">
@@ -29478,7 +29502,7 @@
         <v>0</v>
       </c>
       <c r="J831" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K831" t="inlineStr"/>
       <c r="L831" t="inlineStr">
@@ -29642,7 +29666,7 @@
         <v>0</v>
       </c>
       <c r="J835" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K835" t="inlineStr"/>
       <c r="L835" t="inlineStr">
@@ -29724,7 +29748,7 @@
         <v>0</v>
       </c>
       <c r="J837" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K837" t="inlineStr"/>
       <c r="L837" t="inlineStr">
@@ -29765,7 +29789,7 @@
         <v>0</v>
       </c>
       <c r="J838" t="n">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K838" t="inlineStr"/>
       <c r="L838" t="inlineStr">
@@ -29800,14 +29824,12 @@
         <v>206</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839" t="n">
         <v>0</v>
       </c>
-      <c r="J839" t="n">
-        <v>209</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
       <c r="L839" t="inlineStr">
         <is>
@@ -29841,14 +29863,12 @@
         <v>203.5</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="n">
         <v>0</v>
       </c>
-      <c r="J840" t="n">
-        <v>204</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
       <c r="L840" t="inlineStr">
         <is>
@@ -29882,14 +29902,12 @@
         <v>205</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="n">
         <v>0</v>
       </c>
-      <c r="J841" t="n">
-        <v>205</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
       <c r="L841" t="inlineStr">
         <is>
@@ -29923,14 +29941,12 @@
         <v>207.5</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
         <v>0</v>
       </c>
-      <c r="J842" t="n">
-        <v>207</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
       <c r="L842" t="inlineStr">
         <is>
@@ -29964,14 +29980,12 @@
         <v>209</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I843" t="n">
         <v>0</v>
       </c>
-      <c r="J843" t="n">
-        <v>209</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
       <c r="L843" t="inlineStr">
         <is>

--- a/BackTest/2019-11-21 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-21 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>115117.8635742575</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>115117.8635742575</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>202</v>
@@ -521,7 +521,7 @@
         <v>115112.8192742575</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>202</v>
@@ -562,7 +562,7 @@
         <v>120824.2696742575</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>200</v>
@@ -603,7 +603,7 @@
         <v>120639.2696742575</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>201</v>
@@ -644,7 +644,7 @@
         <v>121825.1153742575</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>200</v>
@@ -685,7 +685,7 @@
         <v>121825.1153742575</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>201</v>
@@ -726,7 +726,7 @@
         <v>138890.7287742575</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>201</v>
@@ -767,7 +767,7 @@
         <v>138090.7287742575</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>202</v>
@@ -808,7 +808,7 @@
         <v>126695.4822742575</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>201</v>
@@ -849,7 +849,7 @@
         <v>126695.4822742575</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>200</v>
@@ -890,7 +890,7 @@
         <v>126695.4822742575</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>200</v>
@@ -931,7 +931,7 @@
         <v>127189.2973742575</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>200</v>
@@ -972,7 +972,7 @@
         <v>115956.3538742575</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>202</v>
@@ -1013,7 +1013,7 @@
         <v>141472.8028742575</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>200</v>
@@ -1054,7 +1054,7 @@
         <v>141472.8028742575</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>202</v>
@@ -1095,7 +1095,7 @@
         <v>162859.9857742575</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>202</v>
@@ -1136,7 +1136,7 @@
         <v>161852.2746742575</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>203</v>
@@ -1177,7 +1177,7 @@
         <v>161852.2746742575</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>202</v>
@@ -1218,7 +1218,7 @@
         <v>171364.3055742575</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>202</v>
@@ -1259,7 +1259,7 @@
         <v>171051.6735742575</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>203</v>
@@ -1300,7 +1300,7 @@
         <v>172608.1106742575</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>202</v>
@@ -1341,7 +1341,7 @@
         <v>171607.5021742575</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>203</v>
@@ -1382,7 +1382,7 @@
         <v>171607.5021742575</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>202</v>
@@ -1423,7 +1423,7 @@
         <v>198986.7488742575</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>202</v>
@@ -1464,7 +1464,7 @@
         <v>200954.2096742575</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>203</v>
@@ -1505,7 +1505,7 @@
         <v>200749.0886742575</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>204</v>
@@ -1546,7 +1546,7 @@
         <v>204277.5108742575</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>202</v>
@@ -1587,7 +1587,7 @@
         <v>204277.5108742575</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>204</v>
@@ -1628,7 +1628,7 @@
         <v>204277.5108742575</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>204</v>
@@ -1669,7 +1669,7 @@
         <v>204277.5108742575</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>204</v>
@@ -1710,7 +1710,7 @@
         <v>196137.2351742575</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>204</v>
@@ -1751,7 +1751,7 @@
         <v>196162.2351742575</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>202</v>
@@ -1792,7 +1792,7 @@
         <v>196162.2351742575</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>204</v>
@@ -1833,7 +1833,7 @@
         <v>195678.3371742575</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>204</v>
@@ -1874,7 +1874,7 @@
         <v>196777.3670860222</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>203</v>
@@ -1915,7 +1915,7 @@
         <v>196291.3670860222</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>204</v>
@@ -1956,7 +1956,7 @@
         <v>196291.3670860222</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>203</v>
@@ -1997,7 +1997,7 @@
         <v>199885.9467860222</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>203</v>
@@ -2038,7 +2038,7 @@
         <v>199885.9467860222</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>204</v>
@@ -2079,7 +2079,7 @@
         <v>207979.3338860222</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>204</v>
@@ -2120,7 +2120,7 @@
         <v>207979.3338860222</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>205</v>
@@ -2161,7 +2161,7 @@
         <v>227842.3417742575</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>205</v>
@@ -2202,9 +2202,11 @@
         <v>234947.6250742575</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>207</v>
+      </c>
       <c r="J45" t="n">
         <v>202</v>
       </c>
@@ -2241,9 +2243,11 @@
         <v>234947.6250742575</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>208</v>
+      </c>
       <c r="J46" t="n">
         <v>202</v>
       </c>
@@ -2280,9 +2284,11 @@
         <v>234947.6250742575</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>208</v>
+      </c>
       <c r="J47" t="n">
         <v>202</v>
       </c>
@@ -2319,9 +2325,11 @@
         <v>251309.7590742575</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>208</v>
+      </c>
       <c r="J48" t="n">
         <v>202</v>
       </c>
@@ -2358,9 +2366,11 @@
         <v>251309.7590742575</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>210</v>
+      </c>
       <c r="J49" t="n">
         <v>202</v>
       </c>
@@ -2397,9 +2407,11 @@
         <v>236346.7006361623</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>210</v>
+      </c>
       <c r="J50" t="n">
         <v>202</v>
       </c>
@@ -2475,9 +2487,11 @@
         <v>211987.8048361623</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>208</v>
+      </c>
       <c r="J52" t="n">
         <v>202</v>
       </c>
@@ -2514,9 +2528,11 @@
         <v>227165.8182361623</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>208</v>
+      </c>
       <c r="J53" t="n">
         <v>202</v>
       </c>
@@ -2553,9 +2569,11 @@
         <v>227165.8182361623</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>209</v>
+      </c>
       <c r="J54" t="n">
         <v>202</v>
       </c>
@@ -2592,9 +2610,11 @@
         <v>541454.8215694957</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>209</v>
+      </c>
       <c r="J55" t="n">
         <v>202</v>
       </c>
@@ -2865,9 +2885,11 @@
         <v>745853.9619694958</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>211</v>
+      </c>
       <c r="J62" t="n">
         <v>202</v>
       </c>
@@ -2904,9 +2926,11 @@
         <v>745853.9619694958</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>214</v>
+      </c>
       <c r="J63" t="n">
         <v>202</v>
       </c>
@@ -2943,9 +2967,11 @@
         <v>734052.8609694957</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>214</v>
+      </c>
       <c r="J64" t="n">
         <v>202</v>
       </c>
@@ -3021,9 +3047,11 @@
         <v>835045.0952694957</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>210</v>
+      </c>
       <c r="J66" t="n">
         <v>202</v>
       </c>
@@ -8637,7 +8665,7 @@
         <v>1671185.756383267</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
@@ -8645,15 +8673,13 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>1.094009900990099</v>
-      </c>
-      <c r="M210" t="n">
-        <v>1.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8678,11 +8704,17 @@
         <v>1860246.801431743</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>202</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8711,11 +8743,17 @@
         <v>1743424.544765076</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>202</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8744,11 +8782,17 @@
         <v>1773028.399865076</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>202</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8777,11 +8821,17 @@
         <v>1740882.126765076</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>202</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8810,11 +8860,17 @@
         <v>1736511.156865076</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>202</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8843,11 +8899,17 @@
         <v>1736511.156865076</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>202</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8876,11 +8938,17 @@
         <v>1736511.156865076</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>202</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8912,8 +8980,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>202</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8945,8 +9019,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>202</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8978,8 +9058,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>202</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9011,8 +9097,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>202</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9044,8 +9136,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>202</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9077,8 +9175,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>202</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9110,8 +9214,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>202</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9143,8 +9253,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>202</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9176,8 +9292,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>202</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9209,8 +9331,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>202</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9242,8 +9370,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>202</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9275,8 +9409,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>202</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9308,8 +9448,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>202</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9341,8 +9487,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>202</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9374,8 +9526,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>202</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9407,8 +9565,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>202</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9440,8 +9604,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>202</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9473,8 +9643,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>202</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9506,8 +9682,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>202</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9539,8 +9721,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>202</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9572,8 +9760,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>202</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9605,8 +9799,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>202</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9638,8 +9838,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>202</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9671,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>202</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9704,8 +9916,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>202</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9737,8 +9955,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>202</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9770,8 +9994,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>202</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9803,8 +10033,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>202</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9836,8 +10072,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>202</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9869,8 +10111,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>202</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9902,8 +10150,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>202</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9935,8 +10189,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>202</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9968,8 +10228,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>202</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10001,8 +10267,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>202</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10034,8 +10306,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>202</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10067,8 +10345,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>202</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10100,8 +10384,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>202</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10133,8 +10423,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>202</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10166,8 +10462,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>202</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10199,8 +10501,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>202</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10232,8 +10540,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>202</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10265,8 +10579,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>202</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10298,8 +10618,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>202</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10331,8 +10657,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>202</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10364,8 +10696,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>202</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10397,8 +10735,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>202</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10430,8 +10774,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>202</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10460,11 +10810,17 @@
         <v>1915980.887825849</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>202</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10493,11 +10849,17 @@
         <v>1837978.858825849</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>202</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10526,11 +10888,17 @@
         <v>1859902.406625849</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>202</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10562,8 +10930,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>202</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10595,8 +10969,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>202</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10628,8 +11008,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>202</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10661,8 +11047,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>202</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10694,8 +11086,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>202</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10727,8 +11125,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>202</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10760,8 +11164,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>202</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10793,8 +11203,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>202</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10826,8 +11242,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>202</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10859,8 +11281,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>202</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10892,8 +11320,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>202</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10925,8 +11359,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>202</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10958,8 +11398,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>202</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10991,8 +11437,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>202</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11024,8 +11476,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>202</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11057,8 +11515,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>202</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11090,8 +11554,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>202</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11123,8 +11593,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>202</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11156,8 +11632,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>202</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11189,8 +11671,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>202</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11222,8 +11710,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>202</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11255,8 +11749,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>202</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11288,8 +11788,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>202</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11321,8 +11827,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>202</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11354,8 +11866,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>202</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11387,8 +11905,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>202</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11420,8 +11944,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>202</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11453,8 +11983,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>202</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11486,8 +12022,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>202</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11519,8 +12061,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>202</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11552,8 +12100,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>202</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11585,8 +12139,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>202</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11618,8 +12178,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>202</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11651,8 +12217,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>202</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11684,8 +12256,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>202</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11717,8 +12295,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>202</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11750,8 +12334,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>202</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11783,8 +12373,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>202</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11816,8 +12412,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>202</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11849,8 +12451,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>202</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11882,8 +12490,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>202</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11915,8 +12529,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>202</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11948,8 +12568,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>202</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11981,8 +12607,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>202</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12014,8 +12646,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>202</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12047,8 +12685,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>202</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12080,8 +12724,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>202</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12113,8 +12763,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>202</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12146,8 +12802,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>202</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12179,8 +12841,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>202</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12212,8 +12880,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>202</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12245,8 +12919,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>202</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12278,8 +12958,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>202</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12311,8 +12997,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>202</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12344,8 +13036,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>202</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12377,8 +13075,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>202</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12410,8 +13114,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>202</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12443,8 +13153,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>202</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12476,8 +13192,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>202</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12509,8 +13231,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>202</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12542,8 +13270,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>202</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12575,8 +13309,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>202</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12608,8 +13348,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>202</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12641,8 +13387,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>202</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12674,8 +13426,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>202</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12707,8 +13465,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>202</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12740,8 +13504,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>202</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12773,8 +13543,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>202</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12806,8 +13582,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>202</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12839,8 +13621,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>202</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12872,8 +13660,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>202</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12905,8 +13699,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>202</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12938,8 +13738,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>202</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12971,8 +13777,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>202</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13004,8 +13816,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>202</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13037,8 +13855,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>202</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13070,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>202</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13103,8 +13933,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>202</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13136,8 +13972,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>202</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13169,8 +14011,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>202</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13202,8 +14050,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>202</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13235,8 +14089,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>202</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13268,8 +14128,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>202</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13301,8 +14167,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>202</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13334,8 +14206,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>202</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13367,8 +14245,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>202</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13400,8 +14284,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>202</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13433,8 +14323,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>202</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13466,8 +14362,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>202</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13499,8 +14401,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>202</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13532,8 +14440,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>202</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13565,8 +14479,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>202</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13598,8 +14518,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>202</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13631,8 +14557,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>202</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13664,8 +14596,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>202</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13697,8 +14635,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>202</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13730,8 +14674,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>202</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13763,8 +14713,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>202</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13796,8 +14752,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>202</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13829,8 +14791,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>202</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13862,8 +14830,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>202</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13895,8 +14869,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>202</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13928,8 +14908,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>202</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13961,8 +14947,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>202</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13994,8 +14986,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>202</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14027,8 +15025,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>202</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14060,8 +15064,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>202</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14093,8 +15103,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>202</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14126,8 +15142,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>202</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14159,8 +15181,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>202</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14192,8 +15220,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>202</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14225,8 +15259,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>202</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14258,8 +15298,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>202</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14291,8 +15337,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>202</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14324,8 +15376,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>202</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14357,8 +15415,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>202</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14390,8 +15454,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>202</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14423,8 +15493,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>202</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14456,8 +15532,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>202</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14489,8 +15571,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>202</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14522,8 +15610,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>202</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14555,8 +15649,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>202</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14588,8 +15688,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>202</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14621,8 +15727,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>202</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14654,8 +15766,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>202</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14687,8 +15805,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>202</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14720,8 +15844,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>202</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14753,8 +15883,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>202</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14786,8 +15922,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>202</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14819,8 +15961,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>202</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14852,8 +16000,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>202</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14885,8 +16039,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>202</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14918,8 +16078,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>202</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14951,8 +16117,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>202</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14984,8 +16156,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>202</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15017,8 +16195,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>202</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15050,8 +16234,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>202</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15083,8 +16273,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>202</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15116,8 +16312,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>202</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15149,8 +16351,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>202</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15182,8 +16390,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>202</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15215,8 +16429,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>202</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15248,8 +16468,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>202</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15281,8 +16507,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>202</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15314,8 +16546,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>202</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15347,8 +16585,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>202</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15380,8 +16624,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>202</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15413,8 +16663,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>202</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15446,8 +16702,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>202</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15479,8 +16741,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>202</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15512,8 +16780,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>202</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15545,8 +16819,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>202</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15578,8 +16858,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>202</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15611,8 +16897,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>202</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15644,8 +16936,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>202</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15677,8 +16975,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>202</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15710,8 +17014,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>202</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15743,8 +17053,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>202</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15776,8 +17092,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>202</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15809,8 +17131,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>202</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15842,8 +17170,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>202</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15875,8 +17209,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>202</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15908,8 +17248,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>202</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15941,8 +17287,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>202</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15974,8 +17326,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>202</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16007,8 +17365,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>202</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16040,8 +17404,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>202</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16073,8 +17443,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>202</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16106,8 +17482,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>202</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16139,8 +17521,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>202</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16172,8 +17560,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>202</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16205,8 +17599,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>202</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16238,8 +17638,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>202</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16271,8 +17677,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>202</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16304,8 +17716,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>202</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16337,8 +17755,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>202</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16370,8 +17794,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>202</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16403,8 +17833,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>202</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16433,11 +17869,17 @@
         <v>1668699.23471545</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>202</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16466,11 +17908,17 @@
         <v>1683489.42241545</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>202</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16499,11 +17947,17 @@
         <v>1672800.87791545</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>202</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16532,11 +17986,17 @@
         <v>1679696.51991545</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>202</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16565,11 +18025,17 @@
         <v>1679646.70091545</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>202</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16598,11 +18064,17 @@
         <v>1679646.70091545</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>202</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16631,11 +18103,17 @@
         <v>1685146.70091545</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>202</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16667,8 +18145,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>202</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16700,8 +18184,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>202</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16730,11 +18220,17 @@
         <v>1685146.70091545</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>202</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16763,11 +18259,17 @@
         <v>1685146.70091545</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>202</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16796,11 +18298,17 @@
         <v>1669468.59411545</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>202</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16829,11 +18337,17 @@
         <v>1669468.59411545</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>202</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16862,11 +18376,17 @@
         <v>1673510.133029736</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>202</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16895,11 +18415,17 @@
         <v>1671128.264729736</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>202</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16928,11 +18454,17 @@
         <v>1671128.264729736</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>202</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16961,11 +18493,17 @@
         <v>1668828.732329736</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>202</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16994,11 +18532,17 @@
         <v>1668828.732329736</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>202</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17027,11 +18571,17 @@
         <v>1668828.732329736</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>202</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17063,8 +18613,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>202</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17096,8 +18652,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>202</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17129,8 +18691,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>202</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17162,8 +18730,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>202</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17195,8 +18769,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>202</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17228,8 +18808,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>202</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17261,8 +18847,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>202</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17294,8 +18886,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>202</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17327,8 +18925,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>202</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17360,8 +18964,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>202</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17393,8 +19003,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>202</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17426,8 +19042,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>202</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17459,8 +19081,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>202</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17492,8 +19120,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>202</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17525,8 +19159,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>202</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17558,8 +19198,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>202</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17591,8 +19237,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>202</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17624,8 +19276,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>202</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17657,8 +19315,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>202</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17690,8 +19354,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>202</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17723,8 +19393,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>202</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17756,8 +19432,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>202</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17786,11 +19468,17 @@
         <v>1728132.710229736</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>202</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17819,11 +19507,17 @@
         <v>1710821.044329736</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>202</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17852,11 +19546,17 @@
         <v>1711118.062329736</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>202</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17885,11 +19585,17 @@
         <v>1711118.062329736</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>202</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17918,11 +19624,17 @@
         <v>1720243.313424472</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>202</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17951,11 +19663,17 @@
         <v>1720243.313424472</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>202</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17984,11 +19702,17 @@
         <v>1715983.983424472</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>202</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18017,11 +19741,17 @@
         <v>1715450.837524473</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>202</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18050,11 +19780,17 @@
         <v>1716698.357824472</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>202</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18083,11 +19819,17 @@
         <v>1717118.793924473</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>202</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18116,11 +19858,17 @@
         <v>1716795.900824473</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>202</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18149,11 +19897,17 @@
         <v>1709131.166724473</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>202</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18182,11 +19936,17 @@
         <v>1709131.166724473</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>202</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18215,11 +19975,17 @@
         <v>1701124.166724473</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>202</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18248,11 +20014,17 @@
         <v>1701124.166724473</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>202</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18281,11 +20053,17 @@
         <v>1697124.166724473</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>202</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18314,11 +20092,17 @@
         <v>1685124.166724473</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>202</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18347,11 +20131,17 @@
         <v>1685124.166724473</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>202</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18383,8 +20173,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>202</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18416,8 +20212,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>202</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18449,8 +20251,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>202</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18482,8 +20290,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>202</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18515,8 +20329,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>202</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18548,8 +20368,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>202</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18581,8 +20407,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>202</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18614,8 +20446,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>202</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18647,8 +20485,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>202</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18680,8 +20524,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>202</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18713,8 +20563,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>202</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18746,8 +20602,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>202</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18779,8 +20641,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>202</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18812,8 +20680,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>202</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18845,8 +20719,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>202</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18878,8 +20758,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>202</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18911,8 +20797,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>202</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18944,8 +20836,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>202</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18974,11 +20872,17 @@
         <v>1685734.620424473</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>202</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19007,11 +20911,17 @@
         <v>1685734.620424473</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>202</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19040,11 +20950,17 @@
         <v>1684416.917624473</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>202</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19073,11 +20989,17 @@
         <v>1684992.889924473</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>202</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19106,11 +21028,17 @@
         <v>1684992.889924473</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>202</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19139,11 +21067,17 @@
         <v>1684992.889924473</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>202</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19172,11 +21106,17 @@
         <v>1684937.889924473</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>202</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19205,11 +21145,17 @@
         <v>1663965.036224473</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>202</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19238,11 +21184,17 @@
         <v>1663965.036224473</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>202</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19271,11 +21223,17 @@
         <v>1663544.683824473</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>202</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19304,11 +21262,17 @@
         <v>1663544.683824473</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>202</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19337,11 +21301,17 @@
         <v>1667876.112224473</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>202</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19370,11 +21340,17 @@
         <v>1667876.112224473</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>202</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19406,8 +21382,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>202</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19439,8 +21421,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>202</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19472,8 +21460,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>202</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19505,8 +21499,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>202</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19538,8 +21538,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>202</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19568,11 +21574,17 @@
         <v>1646244.376524473</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>202</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19601,11 +21613,17 @@
         <v>1649948.926324473</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>202</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19634,11 +21652,17 @@
         <v>1648007.324624473</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>202</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19670,8 +21694,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>202</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19703,8 +21733,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>202</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19733,11 +21769,17 @@
         <v>1649188.004624473</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>202</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19769,8 +21811,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>202</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19802,8 +21850,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>202</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19835,8 +21889,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>202</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19868,8 +21928,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>202</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19901,8 +21967,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>202</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19934,8 +22006,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>202</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19967,8 +22045,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>202</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20000,8 +22084,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>202</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20033,8 +22123,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>202</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20066,8 +22162,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>202</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20099,8 +22201,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>202</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20132,8 +22240,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>202</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20165,8 +22279,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>202</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20198,8 +22318,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>202</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20231,8 +22357,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>202</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20264,8 +22396,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>202</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20297,8 +22435,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>202</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20330,8 +22474,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>202</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20363,8 +22513,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>202</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20396,8 +22552,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>202</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20429,8 +22591,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>202</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20462,8 +22630,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>202</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20495,8 +22669,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>202</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20528,8 +22708,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>202</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20561,8 +22747,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>202</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20594,8 +22786,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>202</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20627,8 +22825,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>202</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20660,8 +22864,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>202</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20693,8 +22903,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>202</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20726,8 +22942,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>202</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20759,8 +22981,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>202</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20792,8 +23020,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>202</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20825,8 +23059,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>202</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20858,8 +23098,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>202</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20891,8 +23137,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>202</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20924,8 +23176,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>202</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20957,8 +23215,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>202</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20990,8 +23254,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>202</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21020,11 +23290,17 @@
         <v>1652349.212913947</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>202</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21053,11 +23329,17 @@
         <v>1653567.807813947</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>202</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21086,11 +23368,17 @@
         <v>1644111.012413947</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>202</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21119,11 +23407,17 @@
         <v>1644111.012413947</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>202</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21152,11 +23446,17 @@
         <v>1644915.763313947</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>202</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21188,8 +23488,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>202</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21221,8 +23527,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>202</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21251,11 +23563,17 @@
         <v>1682273.638213947</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>202</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21284,11 +23602,17 @@
         <v>1682275.638213947</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>202</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21317,11 +23641,17 @@
         <v>1682275.638213947</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>202</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21350,11 +23680,17 @@
         <v>1682275.638213947</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>202</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21383,11 +23719,17 @@
         <v>1747173.944013947</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>202</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21416,11 +23758,17 @@
         <v>1747173.944013947</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>202</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21449,11 +23797,17 @@
         <v>1733843.628813947</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>202</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21482,11 +23836,17 @@
         <v>1733843.628813947</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>202</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21515,11 +23875,17 @@
         <v>1737315.923313947</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>202</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21548,11 +23914,17 @@
         <v>1737315.923313947</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>202</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21581,11 +23953,17 @@
         <v>1737315.923313947</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>202</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21617,8 +23995,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>202</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21650,8 +24034,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>202</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21680,11 +24070,17 @@
         <v>1618550.267013947</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>202</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21713,11 +24109,17 @@
         <v>1618550.267013947</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>202</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21746,11 +24148,17 @@
         <v>1618550.267013947</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>202</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21779,11 +24187,17 @@
         <v>1622028.933913947</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>202</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21812,11 +24226,17 @@
         <v>1622028.933913947</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>202</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21848,8 +24268,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>202</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21881,8 +24307,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>202</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21914,8 +24346,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>202</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21947,8 +24385,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>202</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21977,11 +24421,17 @@
         <v>1626105.307666633</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>202</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22010,11 +24460,17 @@
         <v>1615520.738666633</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>202</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22043,11 +24499,17 @@
         <v>1617551.460666633</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>202</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22076,11 +24538,17 @@
         <v>1617551.460666633</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>202</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22109,15 +24577,23 @@
         <v>1617551.460666633</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>202</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
+        <v>1.143514851485149</v>
+      </c>
+      <c r="M618" t="n">
+        <v>1.01</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -22142,7 +24618,7 @@
         <v>1600878.619666633</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22175,7 +24651,7 @@
         <v>1600878.619666633</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22208,7 +24684,7 @@
         <v>1600878.619666633</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22241,7 +24717,7 @@
         <v>1598418.275966633</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22307,7 +24783,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22340,7 +24816,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22373,7 +24849,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22406,7 +24882,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22472,7 +24948,7 @@
         <v>1783319.71666277</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22505,7 +24981,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22538,7 +25014,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22571,7 +25047,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22604,7 +25080,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22637,7 +25113,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22670,7 +25146,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22736,7 +25212,7 @@
         <v>1782422.81836277</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22769,7 +25245,7 @@
         <v>1782432.81836277</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22802,7 +25278,7 @@
         <v>1766442.66396277</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22835,7 +25311,7 @@
         <v>1766442.66396277</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22868,7 +25344,7 @@
         <v>1766058.82196277</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22901,7 +25377,7 @@
         <v>1766055.82196277</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22934,7 +25410,7 @@
         <v>1742165.58756277</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22967,7 +25443,7 @@
         <v>1742165.58756277</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23099,7 +25575,7 @@
         <v>1753008.89926277</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23132,7 +25608,7 @@
         <v>1753222.574476446</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23165,7 +25641,7 @@
         <v>1753222.574476446</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23198,7 +25674,7 @@
         <v>1752427.415876446</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23231,7 +25707,7 @@
         <v>1752427.415876446</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23264,7 +25740,7 @@
         <v>1760251.445576446</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23297,7 +25773,7 @@
         <v>1760251.445576446</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23462,7 +25938,7 @@
         <v>1758018.937676446</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23528,7 +26004,7 @@
         <v>1755047.786576446</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23561,7 +26037,7 @@
         <v>1751105.264376446</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23957,7 +26433,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23990,7 +26466,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24023,7 +26499,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24056,7 +26532,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24122,7 +26598,7 @@
         <v>1733758.78508831</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24155,7 +26631,7 @@
         <v>1779931.12988831</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24188,7 +26664,7 @@
         <v>1854580.889608141</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24221,7 +26697,7 @@
         <v>1823622.929508141</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24254,7 +26730,7 @@
         <v>1823622.929508141</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24287,7 +26763,7 @@
         <v>1823622.929508141</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24320,7 +26796,7 @@
         <v>1823619.929508141</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24353,7 +26829,7 @@
         <v>1865660.386908141</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24386,7 +26862,7 @@
         <v>1865660.386908141</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24419,7 +26895,7 @@
         <v>1865654.386908141</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24617,7 +27093,7 @@
         <v>1871853.119908141</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24650,7 +27126,7 @@
         <v>1868394.465808141</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24683,7 +27159,7 @@
         <v>1853390.790908141</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24716,7 +27192,7 @@
         <v>1847193.965408141</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24749,7 +27225,7 @@
         <v>1847193.965408141</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24782,7 +27258,7 @@
         <v>1847193.965408141</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24815,7 +27291,7 @@
         <v>1827613.559708141</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25013,7 +27489,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25046,7 +27522,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25079,7 +27555,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25112,7 +27588,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25145,7 +27621,7 @@
         <v>1858360.380008141</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25244,7 +27720,7 @@
         <v>1883580.862508141</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25277,7 +27753,7 @@
         <v>1890833.944208141</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25310,7 +27786,7 @@
         <v>1893125.623808141</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25640,7 +28116,7 @@
         <v>1900854.580108141</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25673,7 +28149,7 @@
         <v>1915810.303508141</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25706,7 +28182,7 @@
         <v>1913551.027208141</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25739,7 +28215,7 @@
         <v>1934914.005173687</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25772,7 +28248,7 @@
         <v>1934914.005173687</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25805,7 +28281,7 @@
         <v>1934914.005173687</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25838,7 +28314,7 @@
         <v>1936560.792373687</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25871,7 +28347,7 @@
         <v>1936560.792373687</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25904,7 +28380,7 @@
         <v>1935587.892673687</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25937,7 +28413,7 @@
         <v>1899872.756273687</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25970,7 +28446,7 @@
         <v>1855266.043173687</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26003,7 +28479,7 @@
         <v>1746625.785973687</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26036,7 +28512,7 @@
         <v>1662959.320773687</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26069,7 +28545,7 @@
         <v>1617633.678073687</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26102,7 +28578,7 @@
         <v>1617633.678073687</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26135,7 +28611,7 @@
         <v>1663310.918273687</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26168,7 +28644,7 @@
         <v>1605872.535873687</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26201,7 +28677,7 @@
         <v>1493076.290173687</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26234,7 +28710,7 @@
         <v>1458157.660773687</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26267,7 +28743,7 @@
         <v>1458157.660773687</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26300,7 +28776,7 @@
         <v>1481267.044773687</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26333,7 +28809,7 @@
         <v>1425677.311273687</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26366,7 +28842,7 @@
         <v>1425677.311273687</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26399,7 +28875,7 @@
         <v>1427241.230273687</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26432,7 +28908,7 @@
         <v>1403001.690573687</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26465,7 +28941,7 @@
         <v>1379240.202873687</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26498,7 +28974,7 @@
         <v>1337450.224473687</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26531,7 +29007,7 @@
         <v>1341459.946073687</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26564,7 +29040,7 @@
         <v>1341459.946073687</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26597,7 +29073,7 @@
         <v>1362410.344873687</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26630,7 +29106,7 @@
         <v>1362410.344873687</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26663,7 +29139,7 @@
         <v>1362410.344873687</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26696,7 +29172,7 @@
         <v>1367021.092573687</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26729,7 +29205,7 @@
         <v>1535267.594273687</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26762,7 +29238,7 @@
         <v>1535267.594273687</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26795,7 +29271,7 @@
         <v>1535267.594273687</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26861,7 +29337,7 @@
         <v>1524705.015473687</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26894,7 +29370,7 @@
         <v>1567387.102973687</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -33307,6 +35783,6 @@
       <c r="M957" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>